--- a/src/main/resources/file/表设计.xlsx
+++ b/src/main/resources/file/表设计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="64">
   <si>
     <t>管理员表</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>缴租类型</t>
+  </si>
+  <si>
+    <t>订单表</t>
+  </si>
+  <si>
+    <t>租房总时间</t>
+  </si>
+  <si>
+    <t>租房总费用</t>
   </si>
 </sst>
 </file>
@@ -205,8 +214,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -220,7 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +238,58 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,37 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,7 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,28 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -372,19 +381,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,163 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +655,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -689,21 +713,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -712,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -867,10 +876,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1242,7 +1251,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" customFormat="1" ht="20" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="20" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>6</v>
@@ -1294,7 +1303,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="20" customHeight="1"/>
+    <row r="6" ht="20" customHeight="1"/>
     <row r="7" ht="20" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>18</v>
@@ -1338,7 +1347,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" customFormat="1" ht="20" customHeight="1"/>
+    <row r="9" ht="20" customHeight="1"/>
     <row r="10" ht="20" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>24</v>
@@ -1380,7 +1389,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" customFormat="1" ht="20" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1"/>
     <row r="13" ht="20" customHeight="1" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>28</v>
@@ -1418,7 +1427,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" customFormat="1" ht="20" customHeight="1"/>
+    <row r="15" ht="20" customHeight="1"/>
     <row r="16" ht="20" customHeight="1" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>32</v>
@@ -1460,7 +1469,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" customFormat="1" ht="20" customHeight="1"/>
+    <row r="18" ht="20" customHeight="1"/>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>35</v>
@@ -1685,10 +1694,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1731,7 +1740,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" customFormat="1" ht="20" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>6</v>
@@ -1785,7 +1794,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="20" customHeight="1"/>
+    <row r="6" ht="20" customHeight="1"/>
     <row r="7" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>50</v>
@@ -1835,7 +1844,6 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" customFormat="1"/>
     <row r="10" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>44</v>
@@ -1871,7 +1879,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" customFormat="1" ht="20" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1"/>
     <row r="13" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>18</v>
@@ -1915,7 +1923,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" customFormat="1" ht="20" customHeight="1"/>
+    <row r="15" ht="20" customHeight="1"/>
     <row r="16" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>41</v>
@@ -1953,7 +1961,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" customFormat="1" ht="20" customHeight="1"/>
+    <row r="18" ht="20" customHeight="1"/>
     <row r="19" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>54</v>
@@ -1997,7 +2005,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" customFormat="1" ht="20" customHeight="1"/>
+    <row r="21" ht="20" customHeight="1"/>
     <row r="22" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>45</v>
@@ -2047,7 +2055,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" customFormat="1" ht="20" customHeight="1"/>
+    <row r="24" ht="20" customHeight="1"/>
     <row r="25" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>28</v>
@@ -2085,7 +2093,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" customFormat="1" ht="20" customHeight="1"/>
+    <row r="27" ht="20" customHeight="1"/>
     <row r="28" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>35</v>
@@ -2129,7 +2137,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" customFormat="1" ht="20" customHeight="1"/>
+    <row r="30" ht="20" customHeight="1"/>
     <row r="31" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A31" s="3" t="s">
         <v>32</v>
@@ -2160,11 +2168,11 @@
       <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S32" s="5"/>
+      <c r="S32" s="2"/>
       <c r="T32" s="6"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="20" customHeight="1"/>
-    <row r="34" s="2" customFormat="1" ht="20" customHeight="1" spans="1:22">
+    <row r="34" s="2" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -2185,12 +2193,8 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="20" customHeight="1" spans="1:22">
+    </row>
+    <row r="35" s="2" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2204,8 +2208,8 @@
         <v>17</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2217,35 +2221,46 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="20" customHeight="1" spans="1:22">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-    </row>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="37" ht="20" customHeight="1" spans="1:1">
+      <c r="A37" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" spans="1:18">
+      <c r="A38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/file/表设计.xlsx
+++ b/src/main/resources/file/表设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
   <si>
     <t>管理员表</t>
   </si>
@@ -70,6 +70,9 @@
     <t>缴租模式</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>修改人</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>缴费时间</t>
-  </si>
-  <si>
-    <t>状态</t>
   </si>
   <si>
     <t>票据表</t>
@@ -208,9 +208,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -222,6 +222,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,8 +242,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +305,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,114 +364,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -374,25 +374,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,157 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,11 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,22 +628,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,17 +648,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,22 +692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,149 +714,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,6 +867,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1193,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1281,20 +1284,22 @@
         <v>17</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="1"/>
     </row>
     <row r="6" ht="20" customHeight="1"/>
     <row r="7" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="20" customHeight="1" spans="1:18">
@@ -1323,7 +1328,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
@@ -1332,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1341,9 +1346,10 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
+    <row r="9" ht="20" customHeight="1"/>
     <row r="10" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="20" customHeight="1" spans="1:18">
@@ -1354,13 +1360,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1379,7 +1385,7 @@
     <row r="12" ht="20" customHeight="1"/>
     <row r="13" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="20" customHeight="1" spans="1:18">
@@ -1390,25 +1396,25 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1423,7 +1429,7 @@
     <row r="15" ht="20" customHeight="1"/>
     <row r="16" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="20" customHeight="1" spans="1:18">
@@ -1431,19 +1437,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1461,7 +1467,7 @@
     <row r="18" ht="20" customHeight="1"/>
     <row r="19" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="20" customHeight="1" spans="1:18">
@@ -1469,28 +1475,28 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1505,7 +1511,7 @@
     <row r="21" ht="20" customHeight="1"/>
     <row r="22" customFormat="1" ht="20" customHeight="1" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="20" customHeight="1" spans="1:18">
@@ -1513,37 +1519,37 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1575,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1601,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>45</v>
@@ -1616,13 +1622,13 @@
         <v>51</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1645,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>53</v>
@@ -1663,10 +1669,10 @@
         <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S32" s="2"/>
-      <c r="T32" s="4"/>
+      <c r="T32" s="5"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="20" customHeight="1"/>
     <row r="34" s="2" customFormat="1" ht="20" customHeight="1" spans="1:18">
@@ -1702,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1730,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>60</v>
@@ -1742,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>

--- a/src/main/resources/file/表设计.xlsx
+++ b/src/main/resources/file/表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="14400" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="124">
   <si>
     <t>管理员表</t>
   </si>
   <si>
+    <t>tb_admin</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -34,9 +37,24 @@
     <t>updatetime</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>aduser</t>
+  </si>
+  <si>
+    <t>adpwd</t>
+  </si>
+  <si>
+    <t>adphone</t>
+  </si>
+  <si>
     <t>租客表</t>
   </si>
   <si>
+    <t>tb_tenants</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -76,21 +94,75 @@
     <t>修改人</t>
   </si>
   <si>
+    <t>tenuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tengender </t>
+  </si>
+  <si>
+    <t>tenidcard</t>
+  </si>
+  <si>
+    <t>tennation</t>
+  </si>
+  <si>
+    <t>tenage</t>
+  </si>
+  <si>
+    <t>tenphone</t>
+  </si>
+  <si>
+    <t>tenpositive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenrent </t>
+  </si>
+  <si>
+    <t>tenroomnum</t>
+  </si>
+  <si>
+    <t>tencomment</t>
+  </si>
+  <si>
+    <t>taxesptn</t>
+  </si>
+  <si>
+    <t>tenstate</t>
+  </si>
+  <si>
     <t>客房多人登记表</t>
   </si>
   <si>
+    <t>tb_tenants_associated</t>
+  </si>
+  <si>
     <t>客房入住ID</t>
   </si>
   <si>
+    <t>tenroomid</t>
+  </si>
+  <si>
     <t>客房表</t>
   </si>
   <si>
+    <t>tb_rooms</t>
+  </si>
+  <si>
     <t>客房状态</t>
   </si>
   <si>
+    <t>roid</t>
+  </si>
+  <si>
+    <t>rostate</t>
+  </si>
+  <si>
     <t>客房入住表</t>
   </si>
   <si>
+    <t>tb_rooms_check</t>
+  </si>
+  <si>
     <t>租客表ID</t>
   </si>
   <si>
@@ -103,18 +175,45 @@
     <t>客房人数</t>
   </si>
   <si>
+    <t>ronum</t>
+  </si>
+  <si>
+    <t>tenid</t>
+  </si>
+  <si>
+    <t>rocheckin</t>
+  </si>
+  <si>
+    <t>rocheckon</t>
+  </si>
+  <si>
+    <t>ropeoplenum</t>
+  </si>
+  <si>
     <t>水电单价表</t>
   </si>
   <si>
+    <t>tb_water_electricity_unit</t>
+  </si>
+  <si>
     <t>水费单价</t>
   </si>
   <si>
     <t>电费单价</t>
   </si>
   <si>
+    <t>waterunit</t>
+  </si>
+  <si>
+    <t>electricityunit</t>
+  </si>
+  <si>
     <t>水电使用表</t>
   </si>
   <si>
+    <t>tb_water_electricity_use</t>
+  </si>
+  <si>
     <t>水表值</t>
   </si>
   <si>
@@ -124,9 +223,21 @@
     <t>抄表时间</t>
   </si>
   <si>
+    <t>waternum</t>
+  </si>
+  <si>
+    <t>electricitynum</t>
+  </si>
+  <si>
+    <t>meterreading</t>
+  </si>
+  <si>
     <t>水电合计表</t>
   </si>
   <si>
+    <t>tb_water_electricity_total</t>
+  </si>
+  <si>
     <t>用水量</t>
   </si>
   <si>
@@ -142,15 +253,42 @@
     <t>水电使用天数</t>
   </si>
   <si>
-    <t>合计</t>
+    <t>合计费用</t>
   </si>
   <si>
     <t>缴费时间</t>
   </si>
   <si>
+    <t>waterconsumption</t>
+  </si>
+  <si>
+    <t>electricityconsumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterrate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricityrate </t>
+  </si>
+  <si>
+    <t>usagedays</t>
+  </si>
+  <si>
+    <t>totalcost</t>
+  </si>
+  <si>
+    <t>paymenttime</t>
+  </si>
+  <si>
+    <t>wetate</t>
+  </si>
+  <si>
     <t>票据表</t>
   </si>
   <si>
+    <t>tb_bill</t>
+  </si>
+  <si>
     <t>票据编号</t>
   </si>
   <si>
@@ -160,9 +298,18 @@
     <t>票据状态</t>
   </si>
   <si>
+    <t>biticketnum</t>
+  </si>
+  <si>
+    <t>bitate</t>
+  </si>
+  <si>
     <t>押金表</t>
   </si>
   <si>
+    <t>tb_deposit</t>
+  </si>
+  <si>
     <t>押金金额</t>
   </si>
   <si>
@@ -172,9 +319,21 @@
     <t>退押时间</t>
   </si>
   <si>
+    <t>bicashpledges</t>
+  </si>
+  <si>
+    <t>bipaymenttime</t>
+  </si>
+  <si>
+    <t>bicashpledge</t>
+  </si>
+  <si>
     <t>房租表</t>
   </si>
   <si>
+    <t>tb_chummage</t>
+  </si>
+  <si>
     <t>房租金额</t>
   </si>
   <si>
@@ -187,19 +346,46 @@
     <t>缴租状态</t>
   </si>
   <si>
+    <t xml:space="preserve">chrent </t>
+  </si>
+  <si>
+    <t>chpaymenttime</t>
+  </si>
+  <si>
+    <t>chnextpaymenttime</t>
+  </si>
+  <si>
+    <t>chtate</t>
+  </si>
+  <si>
     <t>缴租模式表</t>
   </si>
   <si>
+    <t>tb_taxes_pattern</t>
+  </si>
+  <si>
     <t>缴租类型</t>
   </si>
   <si>
+    <t>taxescomment</t>
+  </si>
+  <si>
     <t>订单表</t>
   </si>
   <si>
+    <t>tb_order</t>
+  </si>
+  <si>
     <t>租房总时间</t>
   </si>
   <si>
     <t>租房总费用</t>
+  </si>
+  <si>
+    <t>ordtotalrentaltime</t>
+  </si>
+  <si>
+    <t>ordtotalrent</t>
   </si>
 </sst>
 </file>
@@ -208,9 +394,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -222,21 +408,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +430,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -258,24 +467,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,30 +513,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,15 +537,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,25 +560,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,61 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,98 +744,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -580,6 +766,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -609,6 +804,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -620,15 +826,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,17 +863,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -688,6 +874,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,133 +921,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -869,10 +1064,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,37 +1389,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="22" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="22" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="20" customHeight="1" spans="1:1">
+    <row r="1" customFormat="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1240,182 +1441,249 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" customFormat="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="20" customHeight="1" spans="1:18">
+    <row r="3" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1"/>
+    <row r="5" customFormat="1" ht="20" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" ht="20" customHeight="1" spans="1:15">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="8" ht="20" customHeight="1"/>
+    <row r="9" customFormat="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7" customFormat="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="20" customHeight="1" spans="1:18">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" ht="20" customHeight="1" spans="1:12">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" ht="20" customHeight="1"/>
-    <row r="10" customFormat="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="20" customHeight="1" spans="1:18">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
     </row>
     <row r="12" ht="20" customHeight="1"/>
-    <row r="13" customFormat="1" ht="20" customHeight="1" spans="1:1">
+    <row r="13" customFormat="1" ht="20" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1426,166 +1694,197 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" ht="20" customHeight="1"/>
-    <row r="16" customFormat="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="20" customHeight="1" spans="1:18">
+    <row r="15" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1"/>
+    <row r="17" customFormat="1" ht="20" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" ht="20" customHeight="1"/>
-    <row r="19" customFormat="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="20" customHeight="1" spans="1:18">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" ht="20" customHeight="1"/>
-    <row r="22" customFormat="1" ht="20" customHeight="1" spans="1:1">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1"/>
+    <row r="21" customFormat="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="20" customHeight="1" spans="1:18">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" customFormat="1" ht="20" customHeight="1" spans="1:6">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1"/>
-    <row r="25" customFormat="1" ht="20" customHeight="1" spans="1:1">
+    <row r="25" customFormat="1" ht="20" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1596,165 +1895,226 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" ht="20" customHeight="1"/>
-    <row r="28" customFormat="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="20" customHeight="1" spans="1:18">
+    <row r="27" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1"/>
+    <row r="29" customFormat="1" ht="20" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" customFormat="1" ht="20" customHeight="1" spans="1:12">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" ht="20" customHeight="1"/>
-    <row r="31" customFormat="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="20" customHeight="1" spans="1:20">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1"/>
+    <row r="33" customFormat="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" customFormat="1" ht="20" customHeight="1" spans="1:6">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="5"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="20" customHeight="1"/>
-    <row r="34" s="2" customFormat="1" ht="20" customHeight="1" spans="1:18">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="20" customHeight="1" spans="1:18">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="20" customHeight="1"/>
-    <row r="37" ht="20" customHeight="1" spans="1:1">
-      <c r="A37" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" ht="20" customHeight="1" spans="1:18">
+      <c r="D35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1"/>
+    <row r="37" customFormat="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="20" customHeight="1" spans="1:18">
       <c r="A38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="4"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -1763,7 +2123,236 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" ht="20" customHeight="1"/>
+    <row r="39" customFormat="1" ht="20" customHeight="1" spans="1:11">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" ht="20" customHeight="1"/>
+    <row r="41" customFormat="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="20" customHeight="1" spans="1:20">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="20" customHeight="1" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="45" s="2" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="20" customHeight="1" spans="1:18">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="20" customHeight="1" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="49" ht="20" customHeight="1" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" spans="1:18">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" ht="20" customHeight="1" spans="1:6">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/file/表设计.xlsx
+++ b/src/main/resources/file/表设计.xlsx
@@ -1391,8 +1391,8 @@
   <sheetPr/>
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
